--- a/Input_data/Muster_Honorarrechnung-Lehrkräfte_pytest.xlsx
+++ b/Input_data/Muster_Honorarrechnung-Lehrkräfte_pytest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\domin\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D4D7700E-C879-4D83-9079-EFE4CC28AAE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{504D93D1-BB43-4212-BA9F-3ADF663CD0BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -87,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
   <si>
     <t>Sehr geehrte Damen und Herren,</t>
   </si>
@@ -188,7 +188,10 @@
     <t>0160/4083197</t>
   </si>
   <si>
-    <t xml:space="preserve">ING </t>
+    <t>IE66SUMU99036512650081</t>
+  </si>
+  <si>
+    <t>SumUp Limited</t>
   </si>
 </sst>
 </file>
@@ -838,8 +841,8 @@
   </sheetPr>
   <dimension ref="A1:I64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29:E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.3828125" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -1317,7 +1320,7 @@
       </c>
       <c r="B53" s="20"/>
       <c r="C53" s="39" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
@@ -1330,7 +1333,9 @@
         <v>16</v>
       </c>
       <c r="B54" s="20"/>
-      <c r="C54" s="40"/>
+      <c r="C54" s="40" t="s">
+        <v>33</v>
+      </c>
       <c r="D54" s="12"/>
       <c r="E54" s="10"/>
       <c r="F54" s="6"/>
@@ -1343,7 +1348,9 @@
         <v>22</v>
       </c>
       <c r="B55" s="3"/>
-      <c r="C55" s="41"/>
+      <c r="C55" s="41" t="s">
+        <v>28</v>
+      </c>
       <c r="D55" s="12"/>
       <c r="E55" s="10"/>
       <c r="F55" s="6"/>
